--- a/hellovickykumar123.xlsx
+++ b/hellovickykumar123.xlsx
@@ -8,13 +8,23 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet 0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet 6" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet 7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet 8" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet 9" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet 10" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="91">
   <si>
     <t>center_id</t>
   </si>
@@ -79,19 +89,184 @@
     <t>slots</t>
   </si>
   <si>
-    <t>Saket Hospital Mansarover</t>
-  </si>
-  <si>
-    <t>Mansarover</t>
-  </si>
-  <si>
-    <t>Rajasthan</t>
-  </si>
-  <si>
-    <t>Jaipur II</t>
-  </si>
-  <si>
-    <t>Jaipur II Urban</t>
+    <t>Chc Bhangel 45 YEARS</t>
+  </si>
+  <si>
+    <t>SEC 110 NOIDA G.B.NAGAR</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Gautam Buddha Nagar</t>
+  </si>
+  <si>
+    <t>Bisrakh</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>1421ab3c-4c69-413c-8ea4-275960e067a1</t>
+  </si>
+  <si>
+    <t>07-06-2021</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>COVISHIELD</t>
+  </si>
+  <si>
+    <t>10:00AM-11:00AM</t>
+  </si>
+  <si>
+    <t>11:00AM-12:00PM</t>
+  </si>
+  <si>
+    <t>12:00PM-01:00PM</t>
+  </si>
+  <si>
+    <t>01:00PM-04:00PM</t>
+  </si>
+  <si>
+    <t>MAHILA SPECIAL GBN 01 (45)</t>
+  </si>
+  <si>
+    <t>Sec 30 Noida</t>
+  </si>
+  <si>
+    <t>District Hospital</t>
+  </si>
+  <si>
+    <t>2035f599-759d-4049-bb42-01a955c79130</t>
+  </si>
+  <si>
+    <t>PHC BISRAKH 45 YEAR</t>
+  </si>
+  <si>
+    <t>CHC BISRAKH</t>
+  </si>
+  <si>
+    <t>54659159-fe77-4c73-b073-ded15a811d83</t>
+  </si>
+  <si>
+    <t>CLOUDNINE HOSPITAL PVT LTD C 9</t>
+  </si>
+  <si>
+    <t>SECTOR 51 NOIDA</t>
+  </si>
+  <si>
+    <t>09:30:00</t>
+  </si>
+  <si>
+    <t>19:00:00</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>d377f4c1-d45d-400d-9963-19b0442bd2cc</t>
+  </si>
+  <si>
+    <t>900</t>
+  </si>
+  <si>
+    <t>09:30AM-11:30AM</t>
+  </si>
+  <si>
+    <t>11:30AM-01:30PM</t>
+  </si>
+  <si>
+    <t>01:30PM-03:30PM</t>
+  </si>
+  <si>
+    <t>03:30PM-07:00PM</t>
+  </si>
+  <si>
+    <t>MAX CENTER AL PHATHUM</t>
+  </si>
+  <si>
+    <t>PLOT NO 1 SECTOR 90 NOIDA</t>
+  </si>
+  <si>
+    <t>16:30:00</t>
+  </si>
+  <si>
+    <t>39fce7d7-5046-439e-ad9d-1c2205145732</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>03:30PM-04:30PM</t>
+  </si>
+  <si>
+    <t>45 DISTRICT COM HOSPITAL</t>
+  </si>
+  <si>
+    <t>Sec -30 Noida</t>
+  </si>
+  <si>
+    <t>0452e5dc-b95c-453d-96ec-cc3840e0a8fd</t>
+  </si>
+  <si>
+    <t>S S P G I 45 YEAR</t>
+  </si>
+  <si>
+    <t>SECTOR-30 NOIDA</t>
+  </si>
+  <si>
+    <t>5b1df833-8e5f-42f2-91ee-304389f480a5</t>
+  </si>
+  <si>
+    <t>SCI HEALTHCARE PVT LTD</t>
+  </si>
+  <si>
+    <t>ZYGON SQUARE 3 FLOOR BLOCK H1A SECTOR 63 NOIDA</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>016f0e77-4295-43ae-95d5-321e37944fba</t>
+  </si>
+  <si>
+    <t>01:00PM-02:00PM</t>
+  </si>
+  <si>
+    <t>02:00PM-03:00PM</t>
+  </si>
+  <si>
+    <t>03:00PM-04:00PM</t>
+  </si>
+  <si>
+    <t>04:00PM-07:00PM</t>
+  </si>
+  <si>
+    <t>Esic Noida 45 YEARS</t>
+  </si>
+  <si>
+    <t>Noida Sec 24</t>
+  </si>
+  <si>
+    <t>NOIDA</t>
+  </si>
+  <si>
+    <t>f5bc030b-9198-4189-9345-c3a59f02bd8f</t>
+  </si>
+  <si>
+    <t>MAX MULTISPECIALITY CENTRE</t>
+  </si>
+  <si>
+    <t>A 364 SECTOR 19 NOIDA</t>
   </si>
   <si>
     <t>09:00:00</t>
@@ -100,19 +275,7 @@
     <t>17:00:00</t>
   </si>
   <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>34f63cdc-bee2-4000-9c2a-52d79a74acb0</t>
-  </si>
-  <si>
-    <t>07-06-2021</t>
-  </si>
-  <si>
-    <t>850</t>
-  </si>
-  <si>
-    <t>COVISHIELD</t>
+    <t>823b4996-d51a-43d5-9ebb-fe75f10c7236</t>
   </si>
   <si>
     <t>09:00AM-11:00AM</t>
@@ -125,6 +288,15 @@
   </si>
   <si>
     <t>03:00PM-05:00PM</t>
+  </si>
+  <si>
+    <t>CHC BADALPUR 45 YEARS</t>
+  </si>
+  <si>
+    <t>CHC BADALPUR</t>
+  </si>
+  <si>
+    <t>2ed94392-a75a-44df-af97-4b72d2d15dc6</t>
   </si>
 </sst>
 </file>
@@ -558,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>725385</v>
+        <v>563029</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -576,7 +748,7 @@
         <v>25</v>
       </c>
       <c r="H2">
-        <v>302020</v>
+        <v>201301</v>
       </c>
       <c r="I2" t="s">
         <v>26</v>
@@ -585,10 +757,10 @@
         <v>27</v>
       </c>
       <c r="K2">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
@@ -600,13 +772,13 @@
         <v>30</v>
       </c>
       <c r="P2">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>31</v>
@@ -626,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>725385</v>
+        <v>563029</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -644,7 +816,7 @@
         <v>25</v>
       </c>
       <c r="H3">
-        <v>302020</v>
+        <v>201301</v>
       </c>
       <c r="I3" t="s">
         <v>26</v>
@@ -653,10 +825,10 @@
         <v>27</v>
       </c>
       <c r="K3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
@@ -668,13 +840,13 @@
         <v>30</v>
       </c>
       <c r="P3">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="S3" t="s">
         <v>31</v>
@@ -694,7 +866,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>725385</v>
+        <v>563029</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -712,7 +884,7 @@
         <v>25</v>
       </c>
       <c r="H4">
-        <v>302020</v>
+        <v>201301</v>
       </c>
       <c r="I4" t="s">
         <v>26</v>
@@ -721,10 +893,10 @@
         <v>27</v>
       </c>
       <c r="K4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L4">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
@@ -736,13 +908,13 @@
         <v>30</v>
       </c>
       <c r="P4">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>170</v>
+        <v>1</v>
       </c>
       <c r="S4" t="s">
         <v>31</v>
@@ -762,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>725385</v>
+        <v>563029</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -780,7 +952,7 @@
         <v>25</v>
       </c>
       <c r="H5">
-        <v>302020</v>
+        <v>201301</v>
       </c>
       <c r="I5" t="s">
         <v>26</v>
@@ -789,10 +961,10 @@
         <v>27</v>
       </c>
       <c r="K5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M5" t="s">
         <v>28</v>
@@ -804,13 +976,3513 @@
         <v>30</v>
       </c>
       <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>682515</v>
+      </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>201301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>682515</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>201301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>83</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>682515</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>201301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>682515</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>201301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>610045</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>201301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>66</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>66</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>610045</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>201301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>90</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>66</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>66</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>610045</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>201301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>66</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>66</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>610045</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>201301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>66</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>66</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>731258</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2">
+        <v>201301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>18</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>18</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>731258</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>201301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>18</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>18</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>731258</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>201301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>18</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>18</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>731258</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>201301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>18</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>569387</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>201301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>187</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>187</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>569387</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>201301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>187</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>187</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>569387</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>201301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>187</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>187</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>569387</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>201301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>187</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>187</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>723451</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>201301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>84</v>
+      </c>
+      <c r="Q2">
         <v>75</v>
       </c>
+      <c r="R2">
+        <v>159</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>723451</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>201301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>84</v>
+      </c>
+      <c r="Q3">
+        <v>75</v>
+      </c>
+      <c r="R3">
+        <v>159</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>723451</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>201301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>84</v>
+      </c>
+      <c r="Q4">
+        <v>75</v>
+      </c>
+      <c r="R4">
+        <v>159</v>
+      </c>
+      <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>723451</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>201301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>84</v>
+      </c>
       <c r="Q5">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="R5">
-        <v>170</v>
+        <v>159</v>
+      </c>
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>728593</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>201301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>29</v>
+      </c>
+      <c r="Q2">
+        <v>17</v>
+      </c>
+      <c r="R2">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>728593</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>201301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>29</v>
+      </c>
+      <c r="Q3">
+        <v>17</v>
+      </c>
+      <c r="R3">
+        <v>46</v>
+      </c>
+      <c r="S3" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>728593</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>201301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>29</v>
+      </c>
+      <c r="Q4">
+        <v>17</v>
+      </c>
+      <c r="R4">
+        <v>46</v>
+      </c>
+      <c r="S4" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>728593</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>201301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>58</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>29</v>
+      </c>
+      <c r="Q5">
+        <v>17</v>
+      </c>
+      <c r="R5">
+        <v>46</v>
+      </c>
+      <c r="S5" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>568976</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2">
+        <v>201301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>104</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>104</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>568976</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3">
+        <v>201301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>104</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>104</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>568976</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4">
+        <v>201301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>104</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>104</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>568976</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>201301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>104</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>104</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>562511</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>201301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>119</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>119</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>562511</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>201301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>119</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>119</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>562511</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>201301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>119</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>119</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>562511</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>201301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>119</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>119</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>721044</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>201301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>99</v>
+      </c>
+      <c r="Q2">
+        <v>18</v>
+      </c>
+      <c r="R2">
+        <v>117</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>721044</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>201301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>99</v>
+      </c>
+      <c r="Q3">
+        <v>18</v>
+      </c>
+      <c r="R3">
+        <v>117</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>721044</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>201301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>99</v>
+      </c>
+      <c r="Q4">
+        <v>18</v>
+      </c>
+      <c r="R4">
+        <v>117</v>
+      </c>
+      <c r="S4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>721044</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>201301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>99</v>
+      </c>
+      <c r="Q5">
+        <v>18</v>
+      </c>
+      <c r="R5">
+        <v>117</v>
+      </c>
+      <c r="S5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>568853</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2">
+        <v>201301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>27</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>27</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>568853</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3">
+        <v>201301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>27</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>27</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>568853</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4">
+        <v>201301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>27</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>27</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>568853</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5">
+        <v>201301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>27</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>27</v>
       </c>
       <c r="S5" t="s">
         <v>31</v>

--- a/hellovickykumar123.xlsx
+++ b/hellovickykumar123.xlsx
@@ -10,13 +10,17 @@
     <sheet name="Sheet 0" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet 1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet 6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="71">
   <si>
     <t>center_id</t>
   </si>
@@ -60,15 +64,15 @@
     <t>date</t>
   </si>
   <si>
+    <t>available_capacity</t>
+  </si>
+  <si>
     <t>available_capacity_dose1</t>
   </si>
   <si>
     <t>available_capacity_dose2</t>
   </si>
   <si>
-    <t>available_capacity</t>
-  </si>
-  <si>
     <t>fee</t>
   </si>
   <si>
@@ -81,10 +85,10 @@
     <t>slots</t>
   </si>
   <si>
-    <t>MAX CENTER AL PHATHUM</t>
-  </si>
-  <si>
-    <t>PLOT NO 1 SECTOR 90 NOIDA</t>
+    <t>KAILASH HOSPITAL HEART INST</t>
+  </si>
+  <si>
+    <t>H 33 SECTOR 27 NOIDA</t>
   </si>
   <si>
     <t>Uttar Pradesh</t>
@@ -96,25 +100,52 @@
     <t>Bisrakh</t>
   </si>
   <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>Paid</t>
+  </si>
+  <si>
+    <t>c93851cf-2307-4224-97f8-c1c16a2dec55</t>
+  </si>
+  <si>
+    <t>22-06-2021</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
+    <t>COVISHIELD</t>
+  </si>
+  <si>
+    <t>09:00AM-11:00AM</t>
+  </si>
+  <si>
+    <t>11:00AM-01:00PM</t>
+  </si>
+  <si>
+    <t>01:00PM-03:00PM</t>
+  </si>
+  <si>
+    <t>03:00PM-04:00PM</t>
+  </si>
+  <si>
+    <t>CLOUDNINE HOSPITAL PVT LTD C 9</t>
+  </si>
+  <si>
+    <t>SECTOR 51 NOIDA</t>
+  </si>
+  <si>
     <t>09:30:00</t>
   </si>
   <si>
-    <t>16:30:00</t>
-  </si>
-  <si>
-    <t>Paid</t>
-  </si>
-  <si>
-    <t>0932bcb2-e727-4859-a834-5af1cfd94f72</t>
-  </si>
-  <si>
-    <t>07-06-2021</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>COVISHIELD</t>
+    <t>19:00:00</t>
+  </si>
+  <si>
+    <t>97bb340e-135e-4382-88b2-cacf885dd750</t>
   </si>
   <si>
     <t>09:30AM-11:30AM</t>
@@ -126,64 +157,82 @@
     <t>01:30PM-03:30PM</t>
   </si>
   <si>
-    <t>03:30PM-04:30PM</t>
-  </si>
-  <si>
-    <t>SCI HEALTHCARE PVT LTD</t>
-  </si>
-  <si>
-    <t>ZYGON SQUARE 3 FLOOR BLOCK H1A SECTOR 63 NOIDA</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>19:00:00</t>
-  </si>
-  <si>
-    <t>0221f2fc-4718-4354-b477-171bebde90c5</t>
-  </si>
-  <si>
-    <t>900</t>
-  </si>
-  <si>
-    <t>01:00PM-02:00PM</t>
-  </si>
-  <si>
-    <t>02:00PM-03:00PM</t>
-  </si>
-  <si>
-    <t>03:00PM-04:00PM</t>
-  </si>
-  <si>
-    <t>04:00PM-07:00PM</t>
-  </si>
-  <si>
-    <t>MAX MULTISPECIALITY CENTRE</t>
-  </si>
-  <si>
-    <t>A 364 SECTOR 19 NOIDA</t>
-  </si>
-  <si>
-    <t>09:00:00</t>
+    <t>03:30PM-07:00PM</t>
+  </si>
+  <si>
+    <t>Icare Eye Hospital</t>
+  </si>
+  <si>
+    <t>E-3A Sector-26 Noida</t>
+  </si>
+  <si>
+    <t>ea95a8f7-ab68-4762-a686-8c71b1e370e7</t>
+  </si>
+  <si>
+    <t>YATHARTH SUPERSPECIALITY EXT</t>
+  </si>
+  <si>
+    <t>SECTOR 1 NOIDA EXTENSION</t>
   </si>
   <si>
     <t>17:00:00</t>
   </si>
   <si>
-    <t>85b2a5ed-198d-4edb-ae58-7747017a0280</t>
-  </si>
-  <si>
-    <t>09:00AM-11:00AM</t>
-  </si>
-  <si>
-    <t>11:00AM-01:00PM</t>
-  </si>
-  <si>
-    <t>01:00PM-03:00PM</t>
+    <t>3bf68dd5-5cc3-4a1a-90b1-162270a5262b</t>
   </si>
   <si>
     <t>03:00PM-05:00PM</t>
+  </si>
+  <si>
+    <t>18 TO 44 YEARS E.S.I.C</t>
+  </si>
+  <si>
+    <t>Noida Sec 24</t>
+  </si>
+  <si>
+    <t>NOIDA</t>
+  </si>
+  <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>48584e17-4ab5-44a1-898c-474f77105759</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>10:00AM-11:00AM</t>
+  </si>
+  <si>
+    <t>11:00AM-12:00PM</t>
+  </si>
+  <si>
+    <t>12:00PM-01:00PM</t>
+  </si>
+  <si>
+    <t>01:00PM-04:00PM</t>
+  </si>
+  <si>
+    <t>45 DLF MALL SECTOR 18</t>
+  </si>
+  <si>
+    <t>DLF MALL SECTOR 18 NOIDA</t>
+  </si>
+  <si>
+    <t>022e21ae-1581-49c0-99a5-8373bc606389</t>
+  </si>
+  <si>
+    <t>KAILASH HOSPITAL AND NEURO INS</t>
+  </si>
+  <si>
+    <t>NH 1 SECTOR 71 NOIDA</t>
+  </si>
+  <si>
+    <t>266f389a-6301-4afb-acb7-e892bff7dbd8</t>
   </si>
 </sst>
 </file>
@@ -617,7 +666,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>728593</v>
+        <v>607155</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -659,19 +708,19 @@
         <v>30</v>
       </c>
       <c r="P2">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="Q2">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="R2">
-        <v>337</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>31</v>
       </c>
       <c r="T2">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
         <v>32</v>
@@ -685,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>728593</v>
+        <v>607155</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -727,19 +776,19 @@
         <v>30</v>
       </c>
       <c r="P3">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="R3">
-        <v>337</v>
+        <v>1</v>
       </c>
       <c r="S3" t="s">
         <v>31</v>
       </c>
       <c r="T3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s">
         <v>32</v>
@@ -753,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>728593</v>
+        <v>607155</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -795,19 +844,19 @@
         <v>30</v>
       </c>
       <c r="P4">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="Q4">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="R4">
-        <v>337</v>
+        <v>1</v>
       </c>
       <c r="S4" t="s">
         <v>31</v>
       </c>
       <c r="T4">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s">
         <v>32</v>
@@ -821,7 +870,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>728593</v>
+        <v>607155</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -863,19 +912,19 @@
         <v>30</v>
       </c>
       <c r="P5">
-        <v>317</v>
+        <v>12</v>
       </c>
       <c r="Q5">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="R5">
-        <v>337</v>
+        <v>1</v>
       </c>
       <c r="S5" t="s">
         <v>31</v>
       </c>
       <c r="T5">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s">
         <v>32</v>
@@ -967,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>721044</v>
+        <v>723451</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -1009,25 +1058,25 @@
         <v>30</v>
       </c>
       <c r="P2">
-        <v>310</v>
+        <v>145</v>
       </c>
       <c r="Q2">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="R2">
-        <v>330</v>
+        <v>59</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="T2">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1035,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>721044</v>
+        <v>723451</v>
       </c>
       <c r="C3" t="s">
         <v>37</v>
@@ -1077,25 +1126,25 @@
         <v>30</v>
       </c>
       <c r="P3">
-        <v>310</v>
+        <v>145</v>
       </c>
       <c r="Q3">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="R3">
-        <v>330</v>
+        <v>59</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="T3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s">
         <v>32</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1103,7 +1152,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>721044</v>
+        <v>723451</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1145,25 +1194,25 @@
         <v>30</v>
       </c>
       <c r="P4">
-        <v>310</v>
+        <v>145</v>
       </c>
       <c r="Q4">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="R4">
-        <v>330</v>
+        <v>59</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="T4">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s">
         <v>32</v>
       </c>
       <c r="V4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1171,7 +1220,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>721044</v>
+        <v>723451</v>
       </c>
       <c r="C5" t="s">
         <v>37</v>
@@ -1213,25 +1262,25 @@
         <v>30</v>
       </c>
       <c r="P5">
-        <v>310</v>
+        <v>145</v>
       </c>
       <c r="Q5">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="R5">
-        <v>330</v>
+        <v>59</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="T5">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s">
         <v>32</v>
       </c>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1317,13 +1366,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>682515</v>
+        <v>738725</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>47</v>
-      </c>
-      <c r="D2" t="s">
-        <v>48</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -1338,10 +1387,10 @@
         <v>201301</v>
       </c>
       <c r="I2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K2">
         <v>28</v>
@@ -1353,31 +1402,31 @@
         <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O2" t="s">
         <v>30</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="Q2">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="R2">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="S2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="T2">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
         <v>32</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1385,13 +1434,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>682515</v>
+        <v>738725</v>
       </c>
       <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
         <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -1406,10 +1455,10 @@
         <v>201301</v>
       </c>
       <c r="I3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K3">
         <v>28</v>
@@ -1421,31 +1470,31 @@
         <v>28</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O3" t="s">
         <v>30</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="Q3">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="R3">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="S3" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="T3">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U3" t="s">
         <v>32</v>
       </c>
       <c r="V3" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -1453,13 +1502,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>682515</v>
+        <v>738725</v>
       </c>
       <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
         <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -1474,10 +1523,10 @@
         <v>201301</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K4">
         <v>28</v>
@@ -1489,31 +1538,31 @@
         <v>28</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O4" t="s">
         <v>30</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="Q4">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="R4">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="T4">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U4" t="s">
         <v>32</v>
       </c>
       <c r="V4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -1521,13 +1570,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>682515</v>
+        <v>738725</v>
       </c>
       <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -1542,10 +1591,10 @@
         <v>201301</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="K5">
         <v>28</v>
@@ -1557,31 +1606,1431 @@
         <v>28</v>
       </c>
       <c r="N5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s">
         <v>30</v>
       </c>
       <c r="P5">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="Q5">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="R5">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="T5">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="U5" t="s">
         <v>32</v>
       </c>
       <c r="V5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>629022</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>201301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>96</v>
+      </c>
+      <c r="Q2">
+        <v>49</v>
+      </c>
+      <c r="R2">
+        <v>47</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>629022</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>201301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>96</v>
+      </c>
+      <c r="Q3">
+        <v>49</v>
+      </c>
+      <c r="R3">
+        <v>47</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>629022</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>201301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>96</v>
+      </c>
+      <c r="Q4">
+        <v>49</v>
+      </c>
+      <c r="R4">
+        <v>47</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>629022</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>201301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>96</v>
+      </c>
+      <c r="Q5">
+        <v>49</v>
+      </c>
+      <c r="R5">
+        <v>47</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>568862</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
         <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2">
+        <v>201301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>45</v>
+      </c>
+      <c r="Q2">
+        <v>45</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>568862</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3">
+        <v>201301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>45</v>
+      </c>
+      <c r="Q3">
+        <v>45</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>568862</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4">
+        <v>201301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>45</v>
+      </c>
+      <c r="Q4">
+        <v>45</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>568862</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5">
+        <v>201301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>45</v>
+      </c>
+      <c r="Q5">
+        <v>45</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>703001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>201301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>166</v>
+      </c>
+      <c r="Q2">
+        <v>166</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>703001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>201301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>166</v>
+      </c>
+      <c r="Q3">
+        <v>166</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>60</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>703001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>201301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>166</v>
+      </c>
+      <c r="Q4">
+        <v>166</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>60</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>703001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>201301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" t="s">
+        <v>67</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>166</v>
+      </c>
+      <c r="Q5">
+        <v>166</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:V5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>682533</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
+        <v>201301</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2">
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>31</v>
+      </c>
+      <c r="T2">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>682533</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>201301</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3">
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <v>77</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
+        <v>31</v>
+      </c>
+      <c r="T3">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>32</v>
+      </c>
+      <c r="V3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>682533</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>201301</v>
+      </c>
+      <c r="I4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4">
+        <v>28</v>
+      </c>
+      <c r="L4">
+        <v>77</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>682533</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>201301</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>77</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>30</v>
+      </c>
+      <c r="P5">
+        <v>4</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
